--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.251617269606967</v>
+        <v>-1.278145547333787</v>
       </c>
       <c r="D2">
-        <v>0.2108837037776492</v>
+        <v>0.2145195300955973</v>
       </c>
       <c r="E2">
         <v>0.7637136549476136</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.8128329040502392</v>
+        <v>-0.6410169888098358</v>
       </c>
       <c r="D3">
-        <v>0.4164291059615506</v>
+        <v>0.5281334070391939</v>
       </c>
       <c r="E3">
         <v>0.7637136549476136</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.2950398380720608</v>
+        <v>-0.2498526058763735</v>
       </c>
       <c r="D4">
-        <v>0.7679999243849998</v>
+        <v>0.8050195828821458</v>
       </c>
       <c r="E4">
         <v>0.7637136549476136</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.407495489891046</v>
+        <v>1.245832188492492</v>
       </c>
       <c r="D5">
-        <v>0.1594656130345053</v>
+        <v>0.2259308812846104</v>
       </c>
       <c r="E5">
         <v>0.7637136549476136</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.4150259355285053</v>
+        <v>0.3451876140220917</v>
       </c>
       <c r="D6">
-        <v>0.6781759424071638</v>
+        <v>0.7332318798899893</v>
       </c>
       <c r="E6">
         <v>0.7814370101254507</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.7320640666155079</v>
+        <v>0.6709979266217099</v>
       </c>
       <c r="D7">
-        <v>0.4642316346944537</v>
+        <v>0.5092060350955552</v>
       </c>
       <c r="E7">
         <v>0.7814370101254507</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.177702091541646</v>
+        <v>1.854382719726822</v>
       </c>
       <c r="D8">
-        <v>0.02956701961609665</v>
+        <v>0.07713876190455649</v>
       </c>
       <c r="E8">
         <v>0.7814370101254507</v>
@@ -609,7 +606,7 @@
         <v>0.7455005416948233</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3911673128851262</v>
+        <v>0.465325117435665</v>
       </c>
       <c r="D9">
-        <v>0.6957231999309186</v>
+        <v>0.6462719492043916</v>
       </c>
       <c r="E9">
         <v>0.7738676944653835</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.04283123078295</v>
+        <v>1.41200071442922</v>
       </c>
       <c r="D10">
-        <v>0.04122502331531619</v>
+        <v>0.1719387008003486</v>
       </c>
       <c r="E10">
         <v>0.7738676944653835</v>
@@ -661,7 +658,7 @@
         <v>0.7455005416948233</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.442095119927876</v>
+        <v>1.111373287106509</v>
       </c>
       <c r="D11">
-        <v>0.1494620407186409</v>
+        <v>0.2784063462283677</v>
       </c>
       <c r="E11">
         <v>0.7681532939881393</v>
